--- a/biology/Zoologie/Guêpier_de_Leschenault/Guêpier_de_Leschenault.xlsx
+++ b/biology/Zoologie/Guêpier_de_Leschenault/Guêpier_de_Leschenault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_de_Leschenault</t>
+          <t>Guêpier_de_Leschenault</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Merops leschenaulti
 Le Guêpier de Leschenault (Merops leschenaulti), appelé aussi guêpier à tête rousse, est une espèce d'oiseau appartenant à la famille des Meropidae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_de_Leschenault</t>
+          <t>Guêpier_de_Leschenault</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente le pourtour sud de l'Himalaya et de l'Asie du Sud et se trouve dans l'Asie du Sud-Est.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_de_Leschenault</t>
+          <t>Guêpier_de_Leschenault</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le guêpier de Leschenault mesure de 18 à 23 cm de long et pèse de 23 à 33 g.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_de_Leschenault</t>
+          <t>Guêpier_de_Leschenault</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau qui aime les contrées boisées ouvertes : l'association de petits bois et de prairies est importante pour cette espèce.
 Il vit dans les collines boisées avec de grandes clairières herbeuses et régulièrement brûlée, dans les vergers, les parcs, les pâturages, les cultures et les plantations.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_de_Leschenault</t>
+          <t>Guêpier_de_Leschenault</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le guêpier de Leschenault est insectivore.
 Il se nourrit principalement d'abeilles à miel du genre Apis, de guêpes, de libellules et de papillons, proies qu'il capture après une courte poursuite dans les airs.
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gu%C3%AApier_de_Leschenault</t>
+          <t>Guêpier_de_Leschenault</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le guêpier de Leschenault se reproduit dans des colonies qui regroupent de 10 à 100 nids. 
 Les deux parents participent au creusement du terrier qui va servir à abriter la nichée (4 ou 5 œufs). La galerie mesure de 45 cm à 3 mètres de long. 
